--- a/apa_costa_dos_corais/data/instituições_apacc_2.0.xlsx
+++ b/apa_costa_dos_corais/data/instituições_apacc_2.0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="247">
   <si>
     <t xml:space="preserve">nome_consel</t>
   </si>
@@ -746,6 +746,21 @@
   </si>
   <si>
     <t xml:space="preserve">jaziel gonsalves lages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCCVB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPA/AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
   </si>
 </sst>
 </file>
@@ -874,21 +889,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z65536"/>
+  <dimension ref="A1:Z162"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="A1:D158"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="26" min="15" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="26" min="15" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3125,9 +3140,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
